--- a/constructive-method/solutions/Data_60_Salidas_composición_zonas_homogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
+++ b/constructive-method/solutions/Data_60_Salidas_composición_zonas_homogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>691.2144177748947</v>
+        <v>548.0019785922802</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S041</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
@@ -590,31 +590,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_56</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_56</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
@@ -686,91 +686,91 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_52</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_52</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_58</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_58</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
@@ -830,31 +830,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_41</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_41</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -873,24 +873,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S029</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
@@ -962,79 +962,79 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_42</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pedido_42</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S057</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_59</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pedido_59</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pedido_44</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -1058,55 +1058,55 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S029</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_43</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pedido_43</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pedido_51</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>691.2144177748947</v>
+        <v>548.0019785922802</v>
       </c>
     </row>
     <row r="3">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>574.4196453670667</v>
+        <v>529.9498540382743</v>
       </c>
     </row>
     <row r="4">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.9213320358958</v>
+        <v>544.8734944318305</v>
       </c>
     </row>
   </sheetData>
